--- a/results/MeasureNetwork.xlsx
+++ b/results/MeasureNetwork.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>stationNum</t>
+          <t>LineNum</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>stationName</t>
+          <t>LineName</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
         <v>0.08458646616541353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001977894863691936</v>
+        <v>0.001977894863691937</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>0.09210526315789473</v>
       </c>
       <c r="H8" t="n">
-        <v>0.004387413410566505</v>
+        <v>0.004387413410566506</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>0.06390977443609022</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001459692823020119</v>
+        <v>0.00145969282302012</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         <v>0.131578947368421</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005940797571207224</v>
+        <v>0.005940797571207225</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>0.1015037593984962</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001726950047809836</v>
+        <v>0.001726950047809837</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>0.03195488721804511</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0002027746738403082</v>
+        <v>0.0002027746738403081</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>0.1409774436090225</v>
       </c>
       <c r="H44" t="n">
-        <v>0.006820064317485272</v>
+        <v>0.006820064317485271</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>0.06766917293233082</v>
       </c>
       <c r="H45" t="n">
-        <v>0.000948686410013507</v>
+        <v>0.0009486864100135068</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>0.1033834586466165</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002603514964436364</v>
+        <v>0.002603514964436363</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>0.09774436090225563</v>
       </c>
       <c r="H53" t="n">
-        <v>0.007545377763570082</v>
+        <v>0.007545377763570084</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>0.1221804511278195</v>
       </c>
       <c r="H56" t="n">
-        <v>0.003503316114592746</v>
+        <v>0.003503316114592747</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>0.1296992481203008</v>
       </c>
       <c r="H64" t="n">
-        <v>0.005611336427813901</v>
+        <v>0.005611336427813902</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0003932281553661153</v>
+        <v>0.0003932281553661152</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0004143109536600604</v>
+        <v>0.0004143109536600605</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>0.1484962406015037</v>
       </c>
       <c r="H79" t="n">
-        <v>0.007163025803153903</v>
+        <v>0.007163025803153902</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>0.1109022556390977</v>
       </c>
       <c r="H96" t="n">
-        <v>0.005684628060802849</v>
+        <v>0.005684628060802853</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>0.05827067669172932</v>
       </c>
       <c r="H97" t="n">
-        <v>0.000702023471637187</v>
+        <v>0.0007020234716371868</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>0.07894736842105263</v>
       </c>
       <c r="H105" t="n">
-        <v>0.001528821863985023</v>
+        <v>0.001528821863985024</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>0.08458646616541353</v>
       </c>
       <c r="H108" t="n">
-        <v>0.003087909249150311</v>
+        <v>0.00308790924915031</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>0.1221804511278195</v>
       </c>
       <c r="H114" t="n">
-        <v>0.009829747525560494</v>
+        <v>0.009829747525560496</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>0.112781954887218</v>
       </c>
       <c r="H116" t="n">
-        <v>0.004113182968572043</v>
+        <v>0.004113182968572044</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>0.07330827067669173</v>
       </c>
       <c r="H119" t="n">
-        <v>0.01858425215142865</v>
+        <v>0.01858425215142866</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>0.05451127819548872</v>
       </c>
       <c r="H120" t="n">
-        <v>0.00186927551170446</v>
+        <v>0.001869275511704459</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>0.04323308270676691</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0001890742562998343</v>
+        <v>0.0001890742562998342</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>0.05075187969924812</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0002162306762673577</v>
+        <v>0.0002162306762673578</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>0.1090225563909774</v>
       </c>
       <c r="H161" t="n">
-        <v>0.01232353449290292</v>
+        <v>0.01232353449290293</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="H174" t="n">
-        <v>0.02190534785630266</v>
+        <v>0.02190534785630267</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="H179" t="n">
-        <v>0.001066346682971473</v>
+        <v>0.001066346682971474</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>0.03759398496240601</v>
       </c>
       <c r="H187" t="n">
-        <v>0.00296618908537783</v>
+        <v>0.002966189085377831</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>0.07894736842105263</v>
       </c>
       <c r="H193" t="n">
-        <v>0.0007075370137695077</v>
+        <v>0.0007075370137695078</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>0.01691729323308271</v>
       </c>
       <c r="H195" t="n">
-        <v>0.004107807135252029</v>
+        <v>0.004107807135252028</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>0.09022556390977443</v>
       </c>
       <c r="H196" t="n">
-        <v>0.005462780777574899</v>
+        <v>0.0054627807775749</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>0.01879699248120301</v>
       </c>
       <c r="H197" t="n">
-        <v>0.0004391233289795324</v>
+        <v>0.0004391233289795325</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>0.07518796992481203</v>
       </c>
       <c r="H198" t="n">
-        <v>0.001224488599863577</v>
+        <v>0.001224488599863576</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>0.06390977443609022</v>
       </c>
       <c r="H201" t="n">
-        <v>0.0005951490893396416</v>
+        <v>0.0005951490893396417</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="H227" t="n">
-        <v>0.0008039284542171429</v>
+        <v>0.000803928454217143</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>0.05075187969924812</v>
       </c>
       <c r="H232" t="n">
-        <v>0.001638552743552179</v>
+        <v>0.001638552743552178</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>0.03195488721804511</v>
       </c>
       <c r="H241" t="n">
-        <v>0.0004945039121633182</v>
+        <v>0.0004945039121633183</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>0.03759398496240601</v>
       </c>
       <c r="H263" t="n">
-        <v>0.0003117554053971773</v>
+        <v>0.0003117554053971772</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>0.08082706766917293</v>
       </c>
       <c r="H267" t="n">
-        <v>0.00658787144304038</v>
+        <v>0.006587871443040378</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>0.06954887218045112</v>
       </c>
       <c r="H271" t="n">
-        <v>0.0007769162972352541</v>
+        <v>0.0007769162972352542</v>
       </c>
       <c r="I271" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>0.09586466165413533</v>
       </c>
       <c r="H273" t="n">
-        <v>0.03226644399225279</v>
+        <v>0.0322664439922528</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>0.06015037593984962</v>
       </c>
       <c r="H283" t="n">
-        <v>0.0006451721461406605</v>
+        <v>0.0006451721461406606</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>0.04511278195488722</v>
       </c>
       <c r="H284" t="n">
-        <v>0.000265438665138139</v>
+        <v>0.0002654386651381391</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>0.03195488721804511</v>
       </c>
       <c r="H289" t="n">
-        <v>0.0006360704004634535</v>
+        <v>0.0006360704004634537</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>0.03195488721804511</v>
       </c>
       <c r="H290" t="n">
-        <v>0.0006360704004634535</v>
+        <v>0.0006360704004634537</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>0.06015037593984962</v>
       </c>
       <c r="H296" t="n">
-        <v>0.0009046448853181706</v>
+        <v>0.0009046448853181705</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>0.04135338345864661</v>
       </c>
       <c r="H303" t="n">
-        <v>0.0004214686562498562</v>
+        <v>0.0004214686562498561</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>0.03007518796992481</v>
       </c>
       <c r="H310" t="n">
-        <v>0.006472801083223417</v>
+        <v>0.006472801083223416</v>
       </c>
       <c r="I310" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>0.06954887218045112</v>
       </c>
       <c r="H314" t="n">
-        <v>0.003827567592296564</v>
+        <v>0.003827567592296565</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>0.05639097744360902</v>
       </c>
       <c r="H315" t="n">
-        <v>0.005999902955895143</v>
+        <v>0.005999902955895144</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="H316" t="n">
-        <v>0.007774925944182823</v>
+        <v>0.007774925944182824</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>0.05639097744360902</v>
       </c>
       <c r="H330" t="n">
-        <v>0.007256782217253224</v>
+        <v>0.007256782217253222</v>
       </c>
       <c r="I330" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>0.1184210526315789</v>
       </c>
       <c r="H331" t="n">
-        <v>0.02773818415599624</v>
+        <v>0.02773818415599623</v>
       </c>
       <c r="I331" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>0.05639097744360902</v>
       </c>
       <c r="H345" t="n">
-        <v>0.0003285951758832889</v>
+        <v>0.000328595175883289</v>
       </c>
       <c r="I345" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>0.1390977443609022</v>
       </c>
       <c r="H348" t="n">
-        <v>0.008615042727137916</v>
+        <v>0.008615042727137917</v>
       </c>
       <c r="I348" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>0.02067669172932331</v>
       </c>
       <c r="H366" t="n">
-        <v>0.0006124933169377757</v>
+        <v>0.0006124933169377756</v>
       </c>
       <c r="I366" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>0.06390977443609022</v>
       </c>
       <c r="H367" t="n">
-        <v>0.0007577563111398267</v>
+        <v>0.0007577563111398268</v>
       </c>
       <c r="I367" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>0.06015037593984962</v>
       </c>
       <c r="H369" t="n">
-        <v>0.00882111506534488</v>
+        <v>0.008821115065344878</v>
       </c>
       <c r="I369" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>0.06578947368421052</v>
       </c>
       <c r="H370" t="n">
-        <v>0.00462943852867252</v>
+        <v>0.004629438528672519</v>
       </c>
       <c r="I370" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>0.09962406015037593</v>
       </c>
       <c r="H373" t="n">
-        <v>0.01577642300344582</v>
+        <v>0.01577642300344581</v>
       </c>
       <c r="I373" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="H374" t="n">
-        <v>0.002424841934038208</v>
+        <v>0.002424841934038207</v>
       </c>
       <c r="I374" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>0.1146616541353383</v>
       </c>
       <c r="H376" t="n">
-        <v>0.003911865939709445</v>
+        <v>0.003911865939709444</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="H377" t="n">
-        <v>0.00113451466729675</v>
+        <v>0.001134514667296751</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>0.1090225563909774</v>
       </c>
       <c r="H381" t="n">
-        <v>0.004359509707637553</v>
+        <v>0.004359509707637552</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>0.04323308270676691</v>
       </c>
       <c r="H386" t="n">
-        <v>0.0007357335812616447</v>
+        <v>0.0007357335812616446</v>
       </c>
       <c r="I386" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>0.03195488721804511</v>
       </c>
       <c r="H402" t="n">
-        <v>3.413007534167276e-05</v>
+        <v>3.413007534167275e-05</v>
       </c>
       <c r="I402" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>0.1165413533834586</v>
       </c>
       <c r="H408" t="n">
-        <v>0.003748581638624144</v>
+        <v>0.003748581638624145</v>
       </c>
       <c r="I408" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>0.05639097744360902</v>
       </c>
       <c r="H409" t="n">
-        <v>0.005304315455135607</v>
+        <v>0.005304315455135606</v>
       </c>
       <c r="I409" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>0.1015037593984962</v>
       </c>
       <c r="H411" t="n">
-        <v>0.006322617716382789</v>
+        <v>0.006322617716382788</v>
       </c>
       <c r="I411" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>0.1015037593984962</v>
       </c>
       <c r="H412" t="n">
-        <v>0.008467203417961916</v>
+        <v>0.008467203417961918</v>
       </c>
       <c r="I412" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>0.08270676691729323</v>
       </c>
       <c r="H418" t="n">
-        <v>0.00368962476187111</v>
+        <v>0.003689624761871111</v>
       </c>
       <c r="I418" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>0.137218045112782</v>
       </c>
       <c r="H423" t="n">
-        <v>0.02639270515103803</v>
+        <v>0.02639270515103804</v>
       </c>
       <c r="I423" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>0.1541353383458647</v>
       </c>
       <c r="H429" t="n">
-        <v>0.03725965337838832</v>
+        <v>0.03725965337838833</v>
       </c>
       <c r="I429" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>0.09586466165413533</v>
       </c>
       <c r="H430" t="n">
-        <v>0.009101360459936156</v>
+        <v>0.009101360459936158</v>
       </c>
       <c r="I430" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>0.1522556390977444</v>
       </c>
       <c r="H433" t="n">
-        <v>0.03006226951938547</v>
+        <v>0.03006226951938546</v>
       </c>
       <c r="I433" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>0.03007518796992481</v>
       </c>
       <c r="H436" t="n">
-        <v>0.001375874748195183</v>
+        <v>0.001375874748195182</v>
       </c>
       <c r="I436" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>0.07518796992481203</v>
       </c>
       <c r="H441" t="n">
-        <v>0.007491534968471099</v>
+        <v>0.007491534968471097</v>
       </c>
       <c r="I441" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>0.01503759398496241</v>
       </c>
       <c r="H450" t="n">
-        <v>4.37143873404957e-05</v>
+        <v>4.371438734049569e-05</v>
       </c>
       <c r="I450" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>0.009398496240601503</v>
       </c>
       <c r="H466" t="n">
-        <v>0.0007227852969596615</v>
+        <v>0.0007227852969596616</v>
       </c>
       <c r="I466" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>0.009398496240601503</v>
       </c>
       <c r="H475" t="n">
-        <v>0.0007227852969596615</v>
+        <v>0.0007227852969596616</v>
       </c>
       <c r="I475" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>0.009398496240601503</v>
       </c>
       <c r="H480" t="n">
-        <v>9.255258345775726e-06</v>
+        <v>9.255258345775728e-06</v>
       </c>
       <c r="I480" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="H484" t="n">
-        <v>0.003155220243624565</v>
+        <v>0.003155220243624566</v>
       </c>
       <c r="I484" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>0.01879699248120301</v>
       </c>
       <c r="H499" t="n">
-        <v>9.400070382354179e-05</v>
+        <v>9.40007038235418e-05</v>
       </c>
       <c r="I499" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>0.08270676691729323</v>
       </c>
       <c r="H523" t="n">
-        <v>0.00608934288481694</v>
+        <v>0.006089342884816941</v>
       </c>
       <c r="I523" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>0.1184210526315789</v>
       </c>
       <c r="H525" t="n">
-        <v>0.00171471395721807</v>
+        <v>0.001714713957218069</v>
       </c>
       <c r="I525" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>0.06766917293233082</v>
       </c>
       <c r="H527" t="n">
-        <v>0.00109723167240047</v>
+        <v>0.001097231672400471</v>
       </c>
       <c r="I527" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>0.1146616541353383</v>
       </c>
       <c r="H528" t="n">
-        <v>0.00591999432823595</v>
+        <v>0.005919994328235949</v>
       </c>
       <c r="I528" t="inlineStr">
         <is>
